--- a/Documents/Agile-test-plan-template.xlsx
+++ b/Documents/Agile-test-plan-template.xlsx
@@ -24,79 +24,82 @@
     <style:font-face style:name="Noto Sans CJK SC Regular" svg:font-family="'Noto Sans CJK SC Regular'" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:automatic-styles>
+    <style:style style:name="co1" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="39.16mm"/>
+    </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="25.65mm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="82.36mm"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="72.9mm"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="73.25mm"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="53.66mm"/>
+    </style:style>
     <style:style style:name="co7" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="29.7mm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="39.16mm"/>
-    </style:style>
-    <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="25.65mm"/>
-    </style:style>
-    <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="82.36mm"/>
-    </style:style>
-    <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="72.9mm"/>
-    </style:style>
-    <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="73.25mm"/>
-    </style:style>
-    <style:style style:name="co8" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="53.66mm"/>
-    </style:style>
-    <style:style style:name="ro19" style:family="table-row">
-      <style:table-row-properties style:row-height="5.56mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="5.29mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="15.54mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="15.54mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="6.31mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="10.58mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
       <style:table-row-properties style:row-height="6.61mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro5" style:family="table-row">
+    <style:style style:name="ro6" style:family="table-row">
       <style:table-row-properties style:row-height="6.12mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro6" style:family="table-row">
+    <style:style style:name="ro7" style:family="table-row">
       <style:table-row-properties style:row-height="9.86mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
-    <style:style style:name="ro7" style:family="table-row">
+    <style:style style:name="ro8" style:family="table-row">
       <style:table-row-properties style:row-height="41.01mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro8" style:family="table-row">
+    <style:style style:name="ro9" style:family="table-row">
       <style:table-row-properties style:row-height="55.88mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro9" style:family="table-row">
-      <style:table-row-properties style:row-height="20.83mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro10" style:family="table-row">
+      <style:table-row-properties style:row-height="15.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro11" style:family="table-row">
       <style:table-row-properties style:row-height="5.61mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro11" style:family="table-row">
-      <style:table-row-properties style:row-height="35.38mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro12" style:family="table-row">
+      <style:table-row-properties style:row-height="25.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro13" style:family="table-row">
+      <style:table-row-properties style:row-height="10.53mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro14" style:family="table-row">
       <style:table-row-properties style:row-height="25.79mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro13" style:family="table-row">
+    <style:style style:name="ro15" style:family="table-row">
       <style:table-row-properties style:row-height="21.96mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
-    <style:style style:name="ro14" style:family="table-row">
+    <style:style style:name="ro16" style:family="table-row">
       <style:table-row-properties style:row-height="31.22mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
-    <style:style style:name="ro15" style:family="table-row">
-      <style:table-row-properties style:row-height="6.31mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro16" style:family="table-row">
+    <style:style style:name="ro17" style:family="table-row">
       <style:table-row-properties style:row-height="10.58mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
-    <style:style style:name="ro17" style:family="table-row">
+    <style:style style:name="ro18" style:family="table-row">
       <style:table-row-properties style:row-height="48.95mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
-    <style:style style:name="ro18" style:family="table-row">
+    <style:style style:name="ro19" style:family="table-row">
       <style:table-row-properties style:row-height="10.05mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro20" style:family="table-row">
@@ -108,10 +111,13 @@
     <style:style style:name="ro22" style:family="table-row">
       <style:table-row-properties style:row-height="5.29mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
+    <style:style style:name="ro23" style:family="table-row">
+      <style:table-row-properties style:row-height="5.56mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet1">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
     <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet1">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <number:date-style style:name="N33" number:automatic-order="true">
@@ -122,147 +128,141 @@
     <number:boolean-style style:name="N99">
       <number:boolean/>
     </number:boolean-style>
-    <style:style style:name="ce61" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:rotation-align="none"/>
-    </style:style>
-    <style:style style:name="ce62" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N99">
-      <style:table-cell-properties style:rotation-align="none"/>
-    </style:style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="18pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="18pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="18pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ebf1de" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ebf1de" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#b9cde5" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#b9cde5" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties style:font-name="Calibri1" fo:font-size="14pt" fo:font-weight="bold" style:font-size-asian="14pt" style:font-weight-asian="bold" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:font-name="Calibri1" fo:font-size="14pt" fo:font-weight="bold" style:font-size-asian="14pt" style:font-weight-asian="bold" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Hyperlink">
-      <style:table-cell-properties fo:background-color="#fac090" style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Hyperlink">
+      <style:table-cell-properties fo:background-color="#fac090" style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="28pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" fo:font-weight="normal" style:font-size-asian="28pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="28pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
     </style:style>
     <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#eeeeee" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N33">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N33">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N33">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N33">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce40" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce44" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce45" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce48" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap" fo:border="0.06pt solid #000000"/>
+    <style:style style:name="ce46" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap" fo:border="0.06pt solid #000000" style:vertical-align="top"/>
       <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" fo:language="en" fo:country="AU" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="ar" style:country-asian="SA" style:font-style-asian="normal" style:font-weight-asian="normal" style:language-complex="none" style:country-complex="none" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce49" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap"/>
+    <style:style style:name="ce47" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap" style:vertical-align="top"/>
       <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" fo:language="en" fo:country="AU" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="ar" style:country-asian="SA" style:font-style-asian="normal" style:font-weight-asian="normal" style:language-complex="none" style:country-complex="none" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce50" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce51" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ebf1de" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce52" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ebf1de" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce53" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="start" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="14pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="14pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce41" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce54" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce55" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#eeeeee"/>
     </style:style>
-    <style:style style:name="ce42" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
-    </style:style>
-    <style:style style:name="ce43" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#8ccfb7" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce56" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce57" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ccfb7" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000"/>
     </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#fac090" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+    <style:style style:name="ce58" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#fac090" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
     </style:style>
     <style:style style:name="ce63" style:family="table-cell" style:parent-style-name="Default">
@@ -288,149 +288,162 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true">
         <table:iteration table:maximum-difference="0.0001"/>
       </table:calculation-settings>
-      <table:table table:name="Sheet1" table:style-name="ta3">
+      <table:table table:name="Sheet1" table:style-name="ta1">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co8" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co7" table:number-columns-repeated="1018" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce28"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce28"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce28"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce28"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce28"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce28"/>
+        <table:table-column table:style-name="co7" table:number-columns-repeated="1018" table:default-cell-style-name="ce28"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="10"/>
           <table:table-cell table:number-columns-repeated="1014"/>
         </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+            <text:p>Agile Test Plan</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="21"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
-            <text:p>Agile Test Plan</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="20"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="21"/>
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
+            <text:p>Project Name</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>Risk Management in Loan Processing</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
+            <text:p>Browser:</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>Chrome</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
-            <text:p>Project Name</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
-            <text:p>Browser:</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Test Case ID</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="float" office:value="1" calcext:value-type="float" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>1</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>Version:</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>Version 68.0.3440.84 (Official Build) (64-bit)</text:p>
+            <text:p> </text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Written By:</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>Ashwini.P and Injamuri Krutika</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>Description:</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>User Story 1 test cases</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
             <text:p>Tested By:</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce29" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce52" office:value-type="string" calcext:value-type="string">
             <text:p>Tested On:</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
-          <table:covered-table-cell table:style-name="ce35"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4"/>
-          <table:table-cell table:style-name="ce10" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce14"/>
-          <table:table-cell table:style-name="ce10" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce15"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-spanned="2" table:number-rows-spanned="1"/>
+          <table:covered-table-cell table:style-name="ce29"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce31" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce53"/>
+          <table:table-cell table:style-name="ce31" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce54"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Test #</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Date</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Action</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Expected Results</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Actual Results</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
             <text:p>Pass?</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro6">
-          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:style-name="ce20" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>User Story #1</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce30"/>
-          <table:table-cell table:style-name="ce41" table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro7">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="1" calcext:value-type="float">
+          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce35"/>
+          <table:table-cell table:style-name="ce55" table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro8">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
-            <text:p>The web page should contain all the personal details of the user</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Register</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>The web page should display all the fileds</text:p>
-            <text:p>Name, dob, address, employment type, employer name, salary, emi(if any),email id, gender, purpose of loan(currently only personal loan) </text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro8">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>Name, date of birth, address, employment type, employer name, salary, EMI(if any),email id, gender, purpose of loan(currently only personal loan) </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro9">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce48" office:value-type="string" calcext:value-type="string">
-            <text:p>Validate the details</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce46" office:value-type="string" calcext:value-type="string">
+            <text:p>Validate the fields</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Name : Should contain only alphabet and spaces. Special characters, numbers should not be allowed.</text:p>
             <text:p/>
             <text:p>Mobile No: Allow only numbers of 10 digit length.</text:p>
@@ -438,190 +451,217 @@
             <text:p>Email id: Should have proper email format.</text:p>
             <text:p/>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro9">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro10">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce48" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce46" office:value-type="string" calcext:value-type="string">
             <text:p>If the details are invalid</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
-            <text:p>1. Submit button should be disabled.</text:p>
-            <text:p>2. Prompt the user to type the particular invalid detail</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro10">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="4" calcext:value-type="float">
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Submit button should be disabled and prompt the user to type the particular invalid detail</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro11">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce49" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce47" office:value-type="string" calcext:value-type="string">
             <text:p>If all the details are valid</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Enable the submit button</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro11">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="5" calcext:value-type="float">
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro12">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Check Eligibility</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
-            <text:p>1.  Calculate Eligible loan amount, ROI, Tenure</text:p>
-            <text:p>2. Enable the upload documents button if the user is eligible</text:p>
-            <text:p>3. If the user is uneligible disable the upload documents button</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro12">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="6" calcext:value-type="float">
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Calculate and display Eligible loan amount, ROI, Tenure to the eligible Customer. Display the ineligile status to the ineligible Customer</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro13">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Customer is eligible</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Enable the ‘Upload Documents’ button if the user is eligible</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro13">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="7" calcext:value-type="float">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Customer is ineligible</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Disable the ‘Upload Documents’ button</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro14">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce38"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Click on Apply loan button</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>The web page redirects to another page where the user has to enter PAN details and upload documents for verification in given file format.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1024" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1024" table:number-rows-spanned="1">
             <text:p>User Story #2</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce32"/>
-          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce36"/>
-          <table:covered-table-cell table:number-columns-repeated="1018" table:style-name="ce42"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro13">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="5" calcext:value-type="float">
+          <table:covered-table-cell table:style-name="ce39"/>
+          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce50"/>
+          <table:covered-table-cell table:number-columns-repeated="1018" table:style-name="ce56"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro15">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Verification of documents</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Exatracting details like adhar number, pan details etc from uploded files, process them and remark them</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro14">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="6" calcext:value-type="float">
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro16">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>calculating Credit score</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Based on how often you make payments on time and how many accounts you have in good standing claculating the credit score</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro15">
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1024" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1024" table:number-rows-spanned="1">
             <text:p>User Story #3</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce32"/>
-          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce36"/>
-          <table:covered-table-cell table:number-columns-repeated="1018" table:style-name="ce42"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro14">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="7" calcext:value-type="float">
+          <table:covered-table-cell table:style-name="ce39"/>
+          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce50"/>
+          <table:covered-table-cell table:number-columns-repeated="1018" table:style-name="ce56"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro16">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce51" office:value-type="string" calcext:value-type="string">
             <text:p>Create an account for the user by entering all the detials in the database</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
               Whatever details extracted from 
               <text:s/>
               uploaded documents and credit score of particular user stored in data base.
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro16">
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1024" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro17">
+          <table:table-cell table:style-name="ce23" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1024" table:number-rows-spanned="1">
             <text:p>User Story #4</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce33"/>
-          <table:covered-table-cell table:number-columns-repeated="1018" table:style-name="ce42"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro17">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="8" calcext:value-type="float">
+          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce40"/>
+          <table:covered-table-cell table:number-columns-repeated="1018" table:style-name="ce56"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro18">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Get the list of applied loans</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>The web page which display all loan application along with credit score, eligible loan amount and two buttons with approve and deny.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro17">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="9" calcext:value-type="float">
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro18">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="9" calcext:value-type="float">
             <text:p>9</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Approve/Deny the loan application</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>Above form which contains the two clickable buttons approve and deny by clicking these it which perform next functionality</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro18">
-          <table:table-cell table:style-name="ce25" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro19">
+          <table:table-cell table:style-name="ce26" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>User Story #5</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce34"/>
-          <table:covered-table-cell table:style-name="ce36"/>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce34"/>
-          <table:table-cell table:style-name="ce43" table:number-columns-repeated="1018"/>
+          <table:covered-table-cell table:style-name="ce44"/>
+          <table:covered-table-cell table:style-name="ce50"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce44"/>
+          <table:table-cell table:style-name="ce57" table:number-columns-repeated="1018"/>
         </table:table-row>
         <table:table-row table:style-name="ro20">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="10" calcext:value-type="float">
+          <table:table-cell table:style-name="ce21" office:value-type="float" office:value="10" calcext:value-type="float">
             <text:p>10</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
               <text:span text:style-name="T1">Send mail/sms </text:span>
             </text:p>
@@ -632,74 +672,74 @@
               <text:span text:style-name="T1">2. Reminder for every month for loan payment</text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
             <text:p>
               <text:span text:style-name="T1">Send sms about approval/denial of loan to registered mobile number. And also send sms e</text:span>
               very month from loan approval, to borrower, calculating that monthly payment has to pay.
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro21" table:number-rows-repeated="7">
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="21"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="21"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro22">
-          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="4">
+          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="4">
             <text:p>
               <text:a xlink:href="https://www.smartsheet.com/try-it?trp=8561&amp;utm_source=integrated+content&amp;utm_campaign=/best-agile-pm-templates&amp;utm_medium=agile+test+log+template&amp;lx=Y-edauMi8Lq_ofXZ0cj_JA" xlink:type="simple">Create a Test Plan in Smartsheet</text:a>
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="14"/>
+          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce27"/>
+          <table:table-cell table:style-name="ce58"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="14"/>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce27"/>
+          <table:table-cell table:style-name="ce58"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="14"/>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce27"/>
+          <table:table-cell table:style-name="ce58"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="14"/>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce27"/>
+          <table:table-cell table:style-name="ce58"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="21"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="21"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1">
-            <draw:frame table:end-cell-address="Sheet1.G66" table:end-x="16.29mm" table:end-y="4.15mm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="360.08mm" svg:height="135.07mm" svg:x="3.18mm" svg:y="1.38mm">
+          <table:table-cell table:style-name="ce7">
+            <draw:frame table:end-cell-address="Sheet1.G68" table:end-x="16.29mm" table:end-y="4.15mm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="360.08mm" svg:height="135.08mm" svg:x="3.18mm" svg:y="1.38mm">
               <draw:image xlink:href="Pictures/100000000000033700000186D4EE65419EDAEED4.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="20"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="20"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="35">
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="21"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048499">
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="21"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048497">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -708,7 +748,7 @@
       </table:table>
       <table:table table:name="Sheet2" table:style-name="ta2">
         <table:table-column table:style-name="co7" table:number-columns-repeated="1024" table:default-cell-style-name="ce63"/>
-        <table:table-row table:style-name="ro19" table:number-rows-repeated="10">
+        <table:table-row table:style-name="ro23" table:number-rows-repeated="10">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -735,76 +775,76 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1023"/>
         </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19">
-          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
-            <text:p>FALSE</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1023"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro19" table:number-rows-repeated="1048550">
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23">
+          <table:table-cell table:style-name="ce64" table:formula="of:=FALSE()" office:value-type="boolean" office:boolean-value="false" calcext:value-type="boolean">
+            <text:p>FALSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro23" table:number-rows-repeated="1048550">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro19">
+        <table:table-row table:style-name="ro23">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
@@ -820,11 +860,11 @@
     <meta:creation-date>2016-02-09T21:44:44</meta:creation-date>
     <meta:initial-creator>Emily Esposito</meta:initial-creator>
     <dc:language>en-IN</dc:language>
-    <dc:date>2019-02-21T07:56:12.661104795</dc:date>
-    <meta:editing-cycles>32</meta:editing-cycles>
-    <meta:editing-duration>PT2H29M34S</meta:editing-duration>
+    <dc:date>2019-02-21T16:47:41.348058583</dc:date>
+    <meta:editing-cycles>36</meta:editing-cycles>
+    <meta:editing-duration>PT3H22M</meta:editing-duration>
     <meta:generator>LibreOffice/6.0.3.2$Linux_X86_64 LibreOffice_project/00m0$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="2" meta:cell-count="72" meta:object-count="1"/>
+    <meta:document-statistic meta:table-count="2" meta:cell-count="84" meta:object-count="1"/>
     <meta:user-defined meta:name="AppVersion">15.0300</meta:user-defined>
     <meta:user-defined meta:name="DocSecurity" meta:value-type="float">0</meta:user-defined>
     <meta:user-defined meta:name="HyperlinksChanged" meta:value-type="boolean">false</meta:user-defined>
@@ -842,14 +882,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">529</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">79253</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">79493</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">80449</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">29</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -858,7 +898,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">13</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">24</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">12</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -917,7 +957,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQARHVwbGV4Ok5vbmUAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
@@ -1221,7 +1261,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2019-02-21">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="07:55:28.872583956">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="15:55:13.396962999">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Documents/Agile-test-plan-template.xlsx
+++ b/Documents/Agile-test-plan-template.xlsx
@@ -67,25 +67,25 @@
       <style:table-row-properties style:row-height="9.86mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro8" style:family="table-row">
-      <style:table-row-properties style:row-height="41.01mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="76.06mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro9" style:family="table-row">
-      <style:table-row-properties style:row-height="55.88mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="50.54mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro10" style:family="table-row">
-      <style:table-row-properties style:row-height="15.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="15.86mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro11" style:family="table-row">
       <style:table-row-properties style:row-height="5.61mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro12" style:family="table-row">
+      <style:table-row-properties style:row-height="25.79mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro13" style:family="table-row">
+      <style:table-row-properties style:row-height="15.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro14" style:family="table-row">
       <style:table-row-properties style:row-height="25.52mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro13" style:family="table-row">
-      <style:table-row-properties style:row-height="10.53mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro14" style:family="table-row">
-      <style:table-row-properties style:row-height="25.79mm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro15" style:family="table-row">
       <style:table-row-properties style:row-height="21.96mm" fo:break-before="auto" style:use-optimal-row-height="false"/>
@@ -171,7 +171,7 @@
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:font-name="Calibri1" fo:font-size="14pt" fo:font-weight="bold" style:font-size-asian="14pt" style:font-weight-asian="bold" style:font-name-complex="Calibri1" style:font-size-complex="14pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Hyperlink">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Hyperlink">
       <style:table-cell-properties fo:background-color="#fac090" style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="top" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0mm" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri1" fo:font-size="28pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" fo:font-weight="normal" style:font-size-asian="28pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri1" style:font-size-complex="28pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -281,6 +281,12 @@
     </style:style>
     <style:style style:name="T1" style:family="text">
       <style:text-properties fo:color="#000000" style:font-name="Calibri" fo:font-size="12pt" fo:font-weight="normal" style:text-underline-style="none" style:text-underline-color="font-color" style:text-line-through-type="none" fo:font-style="normal" style:text-outline="false" fo:text-shadow="none" style:text-line-through-mode="continuous" fo:language="en" fo:country="IN" style:language-asian="zh" style:country-asian="CN" style:language-complex="hi" style:country-complex="IN" style:font-name-asian="Noto Sans CJK SC Regular" style:font-name-complex="Calibri" style:font-size-asian="12pt" style:font-size-complex="12pt" style:font-weight-asian="normal" style:font-weight-complex="normal" style:font-style-asian="normal" style:font-style-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="T2" style:family="text">
+      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T3" style:family="text">
+      <style:text-properties style:language-complex="hi" style:country-complex="IN" style:text-overline-style="none" style:text-overline-color="font-color" style:font-relief="none" style:text-emphasize="none" style:font-style-complex="normal" style:font-style-asian="normal" style:font-weight-complex="normal" style:font-weight-asian="normal" style:font-size-complex="12pt" style:font-size-asian="12pt" style:font-name-complex="Calibri" style:font-name-asian="Noto Sans CJK SC Regular" fo:color="#000000" style:language-asian="zh" style:country-asian="CN" fo:language="en" fo:country="IN" style:text-line-through-mode="continuous" fo:text-shadow="none" style:text-outline="false" fo:font-style="normal" style:text-line-through-type="none" style:text-underline-style="none" style:text-underline-color="font-color" fo:font-weight="normal" fo:font-size="12pt" style:font-name="Calibri"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -431,7 +437,36 @@
             <text:p>The web page should display all the fileds</text:p>
             <text:p>Name, date of birth, address, employment type, employer name, salary, EMI(if any),email id, gender, purpose of loan(currently only personal loan) </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
+            <text:p>First Name, Last Name, Date of Birth, Email, Phone, Employment Type</text:p>
+            <text:p>
+              <text:span text:style-name="T2">Salaried:</text:span>
+            </text:p>
+            <text:p>Overall Experience</text:p>
+            <text:p>Experience in Current Comapny</text:p>
+            <text:p>Income Per Month</text:p>
+            <text:p>EMI per Month</text:p>
+            <text:p/>
+            <text:p>
+              <text:span text:style-name="T2">Self Employed:</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">Overall Experience</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">Income Per Annum</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">EMI per Month</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T3">Own Office</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">Own Residence</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce21"/>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -444,14 +479,33 @@
             <text:p>Validate the fields</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
-            <text:p>Name : Should contain only alphabet and spaces. Special characters, numbers should not be allowed.</text:p>
+            <text:p>Name : Should contain only alphabet. Special characters, numbers should not be allowed.</text:p>
             <text:p/>
             <text:p>Mobile No: Allow only numbers of 10 digit length.</text:p>
             <text:p/>
             <text:p>Email id: Should have proper email format.</text:p>
             <text:p/>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">Name : Allows only alphabet</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1"/>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">Mobile No: Allows only numbers of 10 digit length.</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1"/>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">Email id: Allows only email pattern</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Pass</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -466,7 +520,12 @@
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Submit button should be disabled and prompt the user to type the particular invalid detail</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Submit button is disabled</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Pass</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -481,7 +540,12 @@
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Enable the submit button</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Submit button is enabled</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Pass</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -496,7 +560,12 @@
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Calculate and display Eligible loan amount, ROI, Tenure to the eligible Customer. Display the ineligile status to the ineligible Customer</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Gives the eligibility details.Displays ineligibility to customer</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Pass</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -511,11 +580,14 @@
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Enable the ‘Upload Documents’ button if the user is eligible</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro13">
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Upload Documents is always enabled ass it comes in the eligible form</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro10">
           <table:table-cell table:style-name="ce21" office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
@@ -526,7 +598,10 @@
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>Disable the ‘Upload Documents’ button</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Upload Documents is always enabled ass it comes in the eligible form</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45"/>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -541,7 +616,12 @@
           <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
             <text:p>The web page redirects to another page where the user has to enter PAN details and upload documents for verification in given file format.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce45" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>Redirects to new page</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce45" office:value-type="string" calcext:value-type="string">
+            <text:p>pass</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="15"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
@@ -692,30 +772,30 @@
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro22">
-          <table:table-cell table:style-name="ce27" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="4">
+          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="4">
             <text:p>
               <text:a xlink:href="https://www.smartsheet.com/try-it?trp=8561&amp;utm_source=integrated+content&amp;utm_campaign=/best-agile-pm-templates&amp;utm_medium=agile+test+log+template&amp;lx=Y-edauMi8Lq_ofXZ0cj_JA" xlink:type="simple">Create a Test Plan in Smartsheet</text:a>
             </text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce27"/>
+          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce12"/>
           <table:table-cell table:style-name="ce58"/>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce27"/>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce12"/>
           <table:table-cell table:style-name="ce58"/>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce27"/>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce12"/>
           <table:table-cell table:style-name="ce58"/>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce27"/>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce12"/>
           <table:table-cell table:style-name="ce58"/>
           <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1003"/>
@@ -726,7 +806,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce7">
-            <draw:frame table:end-cell-address="Sheet1.G68" table:end-x="16.29mm" table:end-y="4.15mm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="360.08mm" svg:height="135.08mm" svg:x="3.18mm" svg:y="1.38mm">
+            <draw:frame table:end-cell-address="Sheet1.G68" table:end-x="16.29mm" table:end-y="4.15mm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="360.08mm" svg:height="135.07mm" svg:x="3.18mm" svg:y="1.38mm">
               <draw:image xlink:href="Pictures/100000000000033700000186D4EE65419EDAEED4.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -860,11 +940,11 @@
     <meta:creation-date>2016-02-09T21:44:44</meta:creation-date>
     <meta:initial-creator>Emily Esposito</meta:initial-creator>
     <dc:language>en-IN</dc:language>
-    <dc:date>2019-02-21T16:47:41.348058583</dc:date>
-    <meta:editing-cycles>36</meta:editing-cycles>
-    <meta:editing-duration>PT3H22M</meta:editing-duration>
+    <dc:date>2019-03-19T07:39:55.555172202</dc:date>
+    <meta:editing-cycles>37</meta:editing-cycles>
+    <meta:editing-duration>PT3H30M11S</meta:editing-duration>
     <meta:generator>LibreOffice/6.0.3.2$Linux_X86_64 LibreOffice_project/00m0$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="2" meta:cell-count="84" meta:object-count="1"/>
+    <meta:document-statistic meta:table-count="2" meta:cell-count="97" meta:object-count="1"/>
     <meta:user-defined meta:name="AppVersion">15.0300</meta:user-defined>
     <meta:user-defined meta:name="DocSecurity" meta:value-type="float">0</meta:user-defined>
     <meta:user-defined meta:name="HyperlinksChanged" meta:value-type="boolean">false</meta:user-defined>
@@ -882,14 +962,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">529</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">79253</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">80449</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">84485</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -898,7 +978,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">13</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">12</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">10</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -957,8 +1037,8 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQARHVwbGV4Ok5vbmUAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">qQH+/1NhbXN1bmdfTUxfMTY3MF9TZXJpZXNfMTBfNV8wXzIxMgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpTYW1zdW5nX01MXzE2NzBfU2VyaWVzXzEwXwAWAAMAxgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9U2Ftc3VuZ19NTF8xNjcwX1Nlcmllc18xMF81XzBfMjEyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUTAER1cGxleE1vZGU6OlVua25vd24=</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Samsung_ML_1670_Series_10_5_0_212</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
           <config:config-item config:name="Language" config:type="string">en</config:config-item>
@@ -1259,9 +1339,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2019-02-21">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2019-03-19">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="15:55:13.396962999">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="06:40:58.869312233">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
